--- a/tab.xlsx
+++ b/tab.xlsx
@@ -304,7 +304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -318,6 +318,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -340,39 +347,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,28 +691,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="27.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -772,7 +769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -821,7 +818,7 @@
       </c>
       <c r="S2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -878,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -935,7 +932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -992,7 +989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1104,7 +1101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1161,7 +1158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1320,7 +1317,7 @@
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1371,7 +1368,7 @@
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1428,7 +1425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1481,7 +1478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1583,7 +1580,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1640,7 +1637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1687,7 +1684,7 @@
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1734,7 +1731,7 @@
       </c>
       <c r="S19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1781,7 +1778,7 @@
       </c>
       <c r="S20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1828,7 +1825,7 @@
       </c>
       <c r="S21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1875,7 +1872,7 @@
       </c>
       <c r="S22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2000,7 +1997,7 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4">
         <v>201</v>
       </c>
